--- a/data/trans_orig/P1420-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Edad-trans_orig.xlsx
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4844</v>
+        <v>4401</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00206300286772819</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01125925855499812</v>
+        <v>0.01022948101383889</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6617</v>
+        <v>5312</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001003606343242381</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00748236205595015</v>
+        <v>0.006005978912058767</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>429342</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>425386</v>
+        <v>425829</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>430230</v>
@@ -827,7 +827,7 @@
         <v>0.9979369971322718</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9887407414450015</v>
+        <v>0.9897705189861611</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>883488</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>877759</v>
+        <v>879064</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>884376</v>
@@ -848,7 +848,7 @@
         <v>0.9989963936567576</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9925176379440492</v>
+        <v>0.9939940210879412</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -943,19 +943,19 @@
         <v>3887</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>980</v>
+        <v>1023</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9640</v>
+        <v>9820</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005657286377457578</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00142678044078952</v>
+        <v>0.001488421926279612</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01403050368637603</v>
+        <v>0.01429294396660973</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6559</v>
+        <v>7027</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003256464710776857</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01074869511402487</v>
+        <v>0.01151463229850736</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -985,19 +985,19 @@
         <v>5874</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2013</v>
+        <v>1974</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12794</v>
+        <v>12365</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004527966660004689</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001551426844859324</v>
+        <v>0.001521906156491496</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009861482624026448</v>
+        <v>0.009530671632509362</v>
       </c>
     </row>
     <row r="8">
@@ -1014,19 +1014,19 @@
         <v>683200</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>677447</v>
+        <v>677267</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>686107</v>
+        <v>686064</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9943427136225425</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.985969496313624</v>
+        <v>0.9857070560333904</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9985732195592095</v>
+        <v>0.9985115780737204</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>569</v>
@@ -1035,7 +1035,7 @@
         <v>608268</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>603696</v>
+        <v>603228</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>610255</v>
@@ -1044,7 +1044,7 @@
         <v>0.9967435352892231</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9892513048859746</v>
+        <v>0.9884853677014926</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1056,19 +1056,19 @@
         <v>1291468</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1284548</v>
+        <v>1284977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1295329</v>
+        <v>1295368</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9954720333399953</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9901385173759736</v>
+        <v>0.9904693283674909</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9984485731551407</v>
+        <v>0.9984780938435085</v>
       </c>
     </row>
     <row r="9">
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4244</v>
+        <v>4235</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001528870138952147</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006224224058737163</v>
+        <v>0.006211601729179178</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1181,19 +1181,19 @@
         <v>4900</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1926</v>
+        <v>1935</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10810</v>
+        <v>10732</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006904950846581955</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002714286460311865</v>
+        <v>0.00272655975107502</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01523483027676621</v>
+        <v>0.01512407711175612</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1202,19 +1202,19 @@
         <v>5942</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2013</v>
+        <v>1992</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11901</v>
+        <v>12153</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004270445002532607</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001446719737309156</v>
+        <v>0.001431671175268009</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008553117827278739</v>
+        <v>0.008734111782632992</v>
       </c>
     </row>
     <row r="11">
@@ -1231,7 +1231,7 @@
         <v>680821</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>677619</v>
+        <v>677628</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>681863</v>
@@ -1240,7 +1240,7 @@
         <v>0.9984711298610478</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9937757759412629</v>
+        <v>0.9937883982708208</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1252,19 +1252,19 @@
         <v>704674</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>698764</v>
+        <v>698842</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>707648</v>
+        <v>707639</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9930950491534181</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9847651697232338</v>
+        <v>0.9848759228882439</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9972857135396881</v>
+        <v>0.9972734402489249</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1311</v>
@@ -1273,19 +1273,19 @@
         <v>1385495</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1379536</v>
+        <v>1379284</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1389424</v>
+        <v>1389445</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9957295549974674</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9914468821727213</v>
+        <v>0.9912658882173671</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9985532802626909</v>
+        <v>0.998568328824732</v>
       </c>
     </row>
     <row r="12">
@@ -1377,19 +1377,19 @@
         <v>3306</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9815</v>
+        <v>9451</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005378673210523387</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00168768000209541</v>
+        <v>0.001683567585157723</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01596919836349866</v>
+        <v>0.01537709067981517</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1398,19 +1398,19 @@
         <v>10877</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5309</v>
+        <v>5390</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20325</v>
+        <v>19526</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01770811749658336</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008642785673726826</v>
+        <v>0.008773925418253486</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03308834970886824</v>
+        <v>0.03178711605349999</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -1419,19 +1419,19 @@
         <v>14183</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7601</v>
+        <v>8267</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23476</v>
+        <v>23119</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01154162537805421</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006185595335021241</v>
+        <v>0.0067275045219044</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01910350899362856</v>
+        <v>0.0188128061145718</v>
       </c>
     </row>
     <row r="14">
@@ -1448,19 +1448,19 @@
         <v>611311</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>604802</v>
+        <v>605166</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>613580</v>
+        <v>613582</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9946213267894766</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9840308016365014</v>
+        <v>0.9846229093201861</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9983123199979046</v>
+        <v>0.9983164324148422</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>528</v>
@@ -1469,19 +1469,19 @@
         <v>603387</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>593939</v>
+        <v>594738</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>608955</v>
+        <v>608874</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9822918825034166</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9669116502911317</v>
+        <v>0.9682128839465025</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9913572143262732</v>
+        <v>0.9912260745817465</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1073</v>
@@ -1490,19 +1490,19 @@
         <v>1214697</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1205404</v>
+        <v>1205761</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1221279</v>
+        <v>1220613</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9884583746219457</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9808964910063719</v>
+        <v>0.9811871938854285</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9938144046649788</v>
+        <v>0.9932724954780959</v>
       </c>
     </row>
     <row r="15">
@@ -1594,19 +1594,19 @@
         <v>10314</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5265</v>
+        <v>5000</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17959</v>
+        <v>17972</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02401731316348986</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01226094202040564</v>
+        <v>0.01164301298694936</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04182010357834919</v>
+        <v>0.04185172633166443</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1615,19 +1615,19 @@
         <v>14017</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8002</v>
+        <v>7101</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23179</v>
+        <v>23078</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03130133430296015</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01786935479721825</v>
+        <v>0.01585786647099392</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05176152039130195</v>
+        <v>0.0515369948923626</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1636,19 +1636,19 @@
         <v>24330</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15156</v>
+        <v>15532</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35481</v>
+        <v>35268</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02773559433238513</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01727725010111305</v>
+        <v>0.01770562260435095</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0404470780646912</v>
+        <v>0.0402036937531322</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>419115</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>411470</v>
+        <v>411457</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>424164</v>
+        <v>424429</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9759826868365101</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9581798964216502</v>
+        <v>0.9581482736683355</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9877390579795942</v>
+        <v>0.9883569870130505</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>393</v>
@@ -1686,19 +1686,19 @@
         <v>433783</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>424621</v>
+        <v>424722</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>439798</v>
+        <v>440699</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9686986656970399</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.948238479608698</v>
+        <v>0.9484630051076374</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9821306452027818</v>
+        <v>0.984142133529006</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>776</v>
@@ -1707,19 +1707,19 @@
         <v>852899</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>841748</v>
+        <v>841961</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>862073</v>
+        <v>861697</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9722644056676149</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9595529219353088</v>
+        <v>0.9597963062468677</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9827227498988867</v>
+        <v>0.9822943773956488</v>
       </c>
     </row>
     <row r="18">
@@ -1811,19 +1811,19 @@
         <v>5099</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1914</v>
+        <v>1993</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11208</v>
+        <v>12462</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01645922857610212</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006176992814503005</v>
+        <v>0.00643243790340362</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03618054781931029</v>
+        <v>0.04022702655321286</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1832,19 +1832,19 @@
         <v>9738</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4810</v>
+        <v>4892</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16666</v>
+        <v>16686</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02750864802186886</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01358842078709897</v>
+        <v>0.01382021760833597</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04707949068127842</v>
+        <v>0.04713552112491136</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -1853,19 +1853,19 @@
         <v>14837</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8819</v>
+        <v>8620</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23141</v>
+        <v>23028</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02235189998308209</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0132865802522936</v>
+        <v>0.01298604480143853</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03486243682579096</v>
+        <v>0.03469267487314505</v>
       </c>
     </row>
     <row r="20">
@@ -1882,19 +1882,19 @@
         <v>304687</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>298578</v>
+        <v>297324</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>307872</v>
+        <v>307793</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9835407714238978</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9638194521806899</v>
+        <v>0.9597729734467876</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.993823007185497</v>
+        <v>0.9935675620965965</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>334</v>
@@ -1903,19 +1903,19 @@
         <v>344258</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>337330</v>
+        <v>337310</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>349186</v>
+        <v>349104</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9724913519781311</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9529205093187215</v>
+        <v>0.9528644788750886</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.986411579212901</v>
+        <v>0.986179782391664</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>611</v>
@@ -1924,19 +1924,19 @@
         <v>648945</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>640641</v>
+        <v>640754</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>654963</v>
+        <v>655162</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9776481000169179</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9651375631742091</v>
+        <v>0.965307325126855</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9867134197477063</v>
+        <v>0.9870139551985615</v>
       </c>
     </row>
     <row r="21">
@@ -2028,19 +2028,19 @@
         <v>3359</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8881</v>
+        <v>8900</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0134441741906629</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004085973267312734</v>
+        <v>0.004077255004706758</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03554374031818796</v>
+        <v>0.03561954077053918</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -2049,19 +2049,19 @@
         <v>13374</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7612</v>
+        <v>7716</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23394</v>
+        <v>24009</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03438271733581228</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01957021483637246</v>
+        <v>0.0198373655292986</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06014327553104299</v>
+        <v>0.06172410914966226</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -2070,19 +2070,19 @@
         <v>16733</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9965</v>
+        <v>9734</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28025</v>
+        <v>25743</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02619350566102037</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01559882151706917</v>
+        <v>0.01523690511370371</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04386893739067876</v>
+        <v>0.04029756063351546</v>
       </c>
     </row>
     <row r="23">
@@ -2099,19 +2099,19 @@
         <v>246492</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>240970</v>
+        <v>240951</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>248830</v>
+        <v>248832</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9865558258093371</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9644562596818121</v>
+        <v>0.9643804592294608</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9959140267326873</v>
+        <v>0.9959227449952932</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>338</v>
@@ -2120,19 +2120,19 @@
         <v>375605</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>365585</v>
+        <v>364970</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>381367</v>
+        <v>381263</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9656172826641877</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9398567244689569</v>
+        <v>0.9382758908503374</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9804297851636276</v>
+        <v>0.9801626344707014</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>557</v>
@@ -2141,19 +2141,19 @@
         <v>622097</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>610805</v>
+        <v>613087</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>628865</v>
+        <v>629096</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9738064943389796</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9561310626093212</v>
+        <v>0.9597024393664845</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9844011784829308</v>
+        <v>0.9847630948862962</v>
       </c>
     </row>
     <row r="24">
@@ -2245,19 +2245,19 @@
         <v>27007</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18067</v>
+        <v>18219</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>38387</v>
+        <v>39654</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007881151849821333</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005272408801831964</v>
+        <v>0.005316746444766098</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01120210988504778</v>
+        <v>0.01157177406176131</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -2266,19 +2266,19 @@
         <v>55781</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42811</v>
+        <v>40799</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>72024</v>
+        <v>71203</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01569034349127566</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01204204885329174</v>
+        <v>0.01147612679015803</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02025943624726361</v>
+        <v>0.02002852258497674</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>79</v>
@@ -2287,19 +2287,19 @@
         <v>82788</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>64433</v>
+        <v>67123</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>101890</v>
+        <v>103143</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01185751004575172</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009228602456589909</v>
+        <v>0.009613821213322469</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01459355123988732</v>
+        <v>0.01477293309665497</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>3399772</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3388392</v>
+        <v>3387125</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3408712</v>
+        <v>3408560</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9921188481501787</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9887978901149522</v>
+        <v>0.9884282259382381</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9947275911981682</v>
+        <v>0.9946832535552338</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3243</v>
@@ -2337,19 +2337,19 @@
         <v>3499317</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3483074</v>
+        <v>3483895</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3512287</v>
+        <v>3514299</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9843096565087244</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9797405637527363</v>
+        <v>0.9799714774150232</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9879579511467083</v>
+        <v>0.9885238732098419</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6426</v>
@@ -2358,19 +2358,19 @@
         <v>6899089</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6879987</v>
+        <v>6878734</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6917444</v>
+        <v>6914754</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9881424899542482</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9854064487601126</v>
+        <v>0.9852270669033448</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.99077139754341</v>
+        <v>0.9903861787866775</v>
       </c>
     </row>
     <row r="27">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4993</v>
+        <v>5038</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002516548170679156</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01261581792651912</v>
+        <v>0.01272888146302172</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5591</v>
+        <v>6358</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001221681227526967</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006857777077049773</v>
+        <v>0.007799344447498624</v>
       </c>
     </row>
     <row r="5">
@@ -2781,7 +2781,7 @@
         <v>394759</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>390762</v>
+        <v>390717</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -2790,7 +2790,7 @@
         <v>0.9974834518293209</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9873841820734809</v>
+        <v>0.9872711185369782</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2802,7 +2802,7 @@
         <v>814222</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>809627</v>
+        <v>808860</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -2811,7 +2811,7 @@
         <v>0.998778318772473</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9931422229229502</v>
+        <v>0.9922006555525011</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5089</v>
+        <v>5119</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001725390035981313</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008617698247225357</v>
+        <v>0.008668559168237602</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4935</v>
+        <v>4952</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001747407443431415</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008757303213032749</v>
+        <v>0.008787053691382246</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6452</v>
+        <v>6991</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001736141631665728</v>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005590966935333748</v>
+        <v>0.006057941391677648</v>
       </c>
     </row>
     <row r="8">
@@ -2977,7 +2977,7 @@
         <v>589477</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>585407</v>
+        <v>585377</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -2986,7 +2986,7 @@
         <v>0.9982746099640187</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9913823017527746</v>
+        <v>0.9913314408317625</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2998,7 +2998,7 @@
         <v>562559</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>558609</v>
+        <v>558592</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>563544</v>
@@ -3007,7 +3007,7 @@
         <v>0.9982525925565686</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9912426967869673</v>
+        <v>0.9912129463086178</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
         <v>1152036</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1147588</v>
+        <v>1147049</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1154040</v>
@@ -3028,7 +3028,7 @@
         <v>0.9982638583683343</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9944090330646674</v>
+        <v>0.9939420586083224</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -3123,19 +3123,19 @@
         <v>5440</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1986</v>
+        <v>1908</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13041</v>
+        <v>12988</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008130040478640372</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002967987923948041</v>
+        <v>0.00285185603112602</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01948987895835085</v>
+        <v>0.01941095770008255</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4916</v>
+        <v>5852</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00147625467737195</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.007433206645839486</v>
+        <v>0.008847735248969925</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -3165,19 +3165,19 @@
         <v>6416</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2440</v>
+        <v>2497</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13628</v>
+        <v>14010</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004822427578128549</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001834280696285281</v>
+        <v>0.001876783405444921</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01024259759084717</v>
+        <v>0.01052989032456305</v>
       </c>
     </row>
     <row r="11">
@@ -3194,19 +3194,19 @@
         <v>663657</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>656056</v>
+        <v>656109</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>667111</v>
+        <v>667189</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9918699595213596</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9805101210416491</v>
+        <v>0.9805890422999175</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.997032012076052</v>
+        <v>0.997148143968874</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>664</v>
@@ -3215,7 +3215,7 @@
         <v>660410</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>656470</v>
+        <v>655534</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>661386</v>
@@ -3224,7 +3224,7 @@
         <v>0.998523745322628</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9925667933541605</v>
+        <v>0.9911522647510301</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3236,19 +3236,19 @@
         <v>1324067</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1316855</v>
+        <v>1316473</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1328043</v>
+        <v>1327986</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9951775724218714</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9897574024091527</v>
+        <v>0.9894701096754384</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9981657193037148</v>
+        <v>0.9981232165945551</v>
       </c>
     </row>
     <row r="12">
@@ -3340,19 +3340,19 @@
         <v>8203</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3327</v>
+        <v>3147</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17554</v>
+        <v>14951</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01269773250746578</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005149098621083566</v>
+        <v>0.004871904348030104</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02717194357160554</v>
+        <v>0.02314254426581934</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -3361,19 +3361,19 @@
         <v>7411</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3244</v>
+        <v>3143</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17079</v>
+        <v>15020</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0114179240484615</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004997775462075821</v>
+        <v>0.004842322407776625</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02631225370262073</v>
+        <v>0.02314104955893893</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -3382,19 +3382,19 @@
         <v>15614</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8439</v>
+        <v>9178</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25891</v>
+        <v>26506</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0120563318666302</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006515646637467715</v>
+        <v>0.007086937574494127</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01999134824382808</v>
+        <v>0.02046623105732876</v>
       </c>
     </row>
     <row r="14">
@@ -3411,19 +3411,19 @@
         <v>637845</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>628494</v>
+        <v>631097</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>642721</v>
+        <v>642901</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9873022674925342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9728280564283958</v>
+        <v>0.9768574557341797</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9948509013789164</v>
+        <v>0.9951280956519698</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>595</v>
@@ -3432,19 +3432,19 @@
         <v>641666</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>631998</v>
+        <v>634057</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>645833</v>
+        <v>645934</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9885820759515385</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9736877462973793</v>
+        <v>0.9768589504410607</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9950022245379242</v>
+        <v>0.9951576775922234</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1170</v>
@@ -3453,19 +3453,19 @@
         <v>1279511</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1269234</v>
+        <v>1268619</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1286686</v>
+        <v>1285947</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9879436681333698</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.980008651756172</v>
+        <v>0.9795337689426713</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9934843533625323</v>
+        <v>0.9929130624255059</v>
       </c>
     </row>
     <row r="15">
@@ -3557,19 +3557,19 @@
         <v>8870</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3521</v>
+        <v>2835</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18271</v>
+        <v>17886</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01856064932752743</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007367108868424987</v>
+        <v>0.005931607060639792</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03822943475675547</v>
+        <v>0.03742390700666941</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -3578,19 +3578,19 @@
         <v>18903</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10232</v>
+        <v>11073</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30931</v>
+        <v>30510</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03804518149755366</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02059350733967269</v>
+        <v>0.02228576446046165</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06225386261425042</v>
+        <v>0.0614061717045678</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -3599,19 +3599,19 @@
         <v>27773</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17950</v>
+        <v>17336</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42870</v>
+        <v>42205</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02849212049199204</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01841502320267136</v>
+        <v>0.01778457372875582</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04397978742614109</v>
+        <v>0.04329799566656997</v>
       </c>
     </row>
     <row r="17">
@@ -3628,19 +3628,19 @@
         <v>469048</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>459647</v>
+        <v>460032</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>474397</v>
+        <v>475083</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9814393506724726</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9617705652432447</v>
+        <v>0.9625760929933305</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.992632891131575</v>
+        <v>0.99406839293936</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>418</v>
@@ -3649,19 +3649,19 @@
         <v>477946</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>465918</v>
+        <v>466339</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>486617</v>
+        <v>485776</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9619548185024464</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9377461373857499</v>
+        <v>0.9385938282954323</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9794064926603273</v>
+        <v>0.9777142355395383</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>836</v>
@@ -3670,19 +3670,19 @@
         <v>946994</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>931897</v>
+        <v>932562</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>956817</v>
+        <v>957431</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.971507879508008</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9560202125738589</v>
+        <v>0.95670200433343</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9815849767973287</v>
+        <v>0.9822154262712443</v>
       </c>
     </row>
     <row r="18">
@@ -3774,19 +3774,19 @@
         <v>4888</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1859</v>
+        <v>1915</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10809</v>
+        <v>10674</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01462068024995281</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005559220005004382</v>
+        <v>0.005727389611388574</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03233096402956451</v>
+        <v>0.03192588028421642</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -3795,19 +3795,19 @@
         <v>9054</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4116</v>
+        <v>4098</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16047</v>
+        <v>16573</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02396625331367531</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01089662816221995</v>
+        <v>0.0108467857205116</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04247895495505464</v>
+        <v>0.04387269445464878</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -3816,19 +3816,19 @@
         <v>13942</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8010</v>
+        <v>8056</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22695</v>
+        <v>22110</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01957846995668534</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01124824639713554</v>
+        <v>0.01131251930650347</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03187117082091526</v>
+        <v>0.0310488873862274</v>
       </c>
     </row>
     <row r="20">
@@ -3845,19 +3845,19 @@
         <v>329442</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>323521</v>
+        <v>323656</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>332471</v>
+        <v>332415</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9853793197500472</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9676690359704354</v>
+        <v>0.9680741197157836</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9944407799949956</v>
+        <v>0.9942726103886114</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>345</v>
@@ -3866,19 +3866,19 @@
         <v>368708</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>361715</v>
+        <v>361189</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>373646</v>
+        <v>373664</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9760337466863247</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9575210450449452</v>
+        <v>0.9561273055453506</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.98910337183778</v>
+        <v>0.9891532142794884</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>665</v>
@@ -3887,19 +3887,19 @@
         <v>698150</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>689397</v>
+        <v>689982</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>704082</v>
+        <v>704036</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9804215300433147</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9681288291790848</v>
+        <v>0.9689511126137725</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9887517536028645</v>
+        <v>0.9886874806934965</v>
       </c>
     </row>
     <row r="21">
@@ -3991,19 +3991,19 @@
         <v>5113</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2444</v>
+        <v>1785</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10520</v>
+        <v>10717</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01989462368399583</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009510027069882009</v>
+        <v>0.00694588840807527</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04093449190882797</v>
+        <v>0.04170250116269678</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -4012,19 +4012,19 @@
         <v>7625</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2559</v>
+        <v>2536</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16011</v>
+        <v>15207</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01905532248699817</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006395141329732817</v>
+        <v>0.006337815032909998</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04001032297227292</v>
+        <v>0.03800111185947041</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -4033,19 +4033,19 @@
         <v>12738</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7132</v>
+        <v>6755</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22210</v>
+        <v>22275</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01938354762574857</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01085294493933549</v>
+        <v>0.01027972964880806</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03379591186019759</v>
+        <v>0.03389585699897767</v>
       </c>
     </row>
     <row r="23">
@@ -4062,19 +4062,19 @@
         <v>251885</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>246478</v>
+        <v>246281</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>254554</v>
+        <v>255213</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9801053763160041</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.959065508091172</v>
+        <v>0.9582974988373034</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.990489972930118</v>
+        <v>0.9930541115919247</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>295</v>
@@ -4083,19 +4083,19 @@
         <v>392544</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>384158</v>
+        <v>384962</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>397610</v>
+        <v>397633</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9809446775130019</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9599896770277265</v>
+        <v>0.9619988881405296</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9936048586702672</v>
+        <v>0.99366218496709</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>591</v>
@@ -4104,19 +4104,19 @@
         <v>644429</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>634957</v>
+        <v>634892</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>650035</v>
+        <v>650412</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9806164523742514</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9662040881398024</v>
+        <v>0.9661041430010218</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9891470550606645</v>
+        <v>0.9897202703511918</v>
       </c>
     </row>
     <row r="24">
@@ -4208,19 +4208,19 @@
         <v>33533</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22944</v>
+        <v>22577</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48204</v>
+        <v>47563</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.00987919446310985</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006759518122997071</v>
+        <v>0.006651449929770137</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01420110652100385</v>
+        <v>0.01401252084795766</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -4229,19 +4229,19 @@
         <v>45950</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33571</v>
+        <v>33834</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>63768</v>
+        <v>63182</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01296352619107343</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.009471319394297481</v>
+        <v>0.009545369857558448</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01799057470135658</v>
+        <v>0.01782509733833459</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>70</v>
@@ -4250,19 +4250,19 @@
         <v>79483</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>62292</v>
+        <v>61890</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>99363</v>
+        <v>99156</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01145474035855694</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008977285655242695</v>
+        <v>0.008919238252881156</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01431968030949249</v>
+        <v>0.01428990893959011</v>
       </c>
     </row>
     <row r="26">
@@ -4279,19 +4279,19 @@
         <v>3360817</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3346146</v>
+        <v>3346787</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3371406</v>
+        <v>3371773</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9901208055368902</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9857988934789962</v>
+        <v>0.9859874791520422</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.993240481877003</v>
+        <v>0.9933485500702297</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3298</v>
@@ -4300,19 +4300,19 @@
         <v>3498592</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3480774</v>
+        <v>3481360</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3510971</v>
+        <v>3510708</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9870364738089266</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9820094252986434</v>
+        <v>0.9821749026616654</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9905286806057025</v>
+        <v>0.9904546301424415</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6499</v>
@@ -4321,19 +4321,19 @@
         <v>6859409</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6839529</v>
+        <v>6839736</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6876600</v>
+        <v>6877002</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.988545259641443</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9856803196905078</v>
+        <v>0.98571009106041</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9910227143447574</v>
+        <v>0.9910807617471189</v>
       </c>
     </row>
     <row r="27">
